--- a/tables/socialResponses/opioidSubstitutionProviders.xlsx
+++ b/tables/socialResponses/opioidSubstitutionProviders.xlsx
@@ -1,25 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DANIEL\Documents\DataMiningSeminarska\PR20ddpdjphv\tables\socialResponses\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
-    <sheet name="HSR-2-3" r:id="rId3" sheetId="1"/>
+    <sheet name="HSR-2-3" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="62">
   <si>
     <t/>
   </si>
   <si>
-    <t>Health and social responses  &gt;  Legal framework  &gt;  OST providers</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
@@ -201,72 +205,25 @@
   </si>
   <si>
     <t xml:space="preserve"> (ii)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1) Notes: 'Y' indicates whether a specific provider is involved in dispensing opioid substitution treatment. </t>
-  </si>
-  <si>
-    <t>(2) Notes: Where a specific provider is not allowed to dispense a specific medication,  the table entry is left empty. Exception for Malta, Sweden and Croatia for which data were not available .</t>
-  </si>
-  <si>
-    <t>(3) Notes: 'Specialized medical doctors' refers to specifically trained or accredited office-based medical doctors or general practitioners practicing outside specialised drug treatment centres.</t>
-  </si>
-  <si>
-    <t>(4) Notes: 'Any medical doctor' refers to office-based medical doctors practicing outside specialised drug treatment centres.</t>
-  </si>
-  <si>
-    <t>(5) Notes: (1) In Czechia doctors are not dispensing, just prescribing. Pharmacies are selling/dispensing buprenorphine but they are not supervising the consumption.</t>
-  </si>
-  <si>
-    <t>(6) Sources: Answers from the legal correspondents of the European Legal Database on Drugs (ELDD) to a EMCDDA survey on the legal framework of substitution treatment (2006). See also &lt;a href="http://www.emcdda.europa.eu/html.cfm/index41823EN.html"&gt;ELDD topic overview&lt;/a&gt;.</t>
-  </si>
-  <si>
-    <t>(7) Notes: (3) In Spain, high dosage buprenorphine is not commercially available. The Royal Decree 5/1996, still in force, is the basic law at national level which regulates OST. The Autonomous Communities can establish their own management practicalities to operate the OST, but always in accordance with the mentioned Royal Decree</t>
-  </si>
-  <si>
-    <t>(8) Notes: (4) In Turkey Buprenorphine-Naloxone combination treatment is available since 2009.</t>
-  </si>
-  <si>
-    <t>(9) Notes: Other providers: (i) Hospitals</t>
-  </si>
-  <si>
-    <t>(10) Notes: Other providers: (ii) Emergency rooms but only under the prescription of a specialised medical doctor</t>
-  </si>
-  <si>
-    <t>(11) Sources: Structured Questionnaire on 'treatment programmes'  (SQ27P1), submitted by NFPs.</t>
-  </si>
-  <si>
-    <t>(12) Notes: (2) In Ireland, buprenorphine is provided for substitution in a pilot programme. It does not come under the same legal framework as methadone but does come under the controlled drug legislation.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <sz val="18.0"/>
-      <charset val="0"/>
-      <color indexed="8"/>
-      <u val="none"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <charset val="0"/>
-      <color indexed="8"/>
-      <u val="none"/>
-      <b val="true"/>
     </font>
   </fonts>
   <fills count="2">
@@ -274,7 +231,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -289,310 +246,806 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z31"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.0" customWidth="true"/>
-    <col min="2" max="2" width="26.25390625" customWidth="true"/>
-    <col min="3" max="3" width="30.00390625" customWidth="true"/>
-    <col min="4" max="4" width="23.12890625" customWidth="true"/>
-    <col min="5" max="5" width="13.75390625" customWidth="true"/>
-    <col min="6" max="6" width="20.62890625" customWidth="true"/>
-    <col min="7" max="7" width="16.25390625" customWidth="true"/>
-    <col min="8" max="8" width="36.25390625" customWidth="true"/>
-    <col min="9" max="9" width="40.00390625" customWidth="true"/>
-    <col min="10" max="10" width="33.12890625" customWidth="true"/>
-    <col min="11" max="11" width="23.75390625" customWidth="true"/>
-    <col min="12" max="12" width="30.62890625" customWidth="true"/>
-    <col min="13" max="13" width="26.25390625" customWidth="true"/>
-    <col min="14" max="14" width="41.87890625" customWidth="true"/>
-    <col min="15" max="15" width="45.62890625" customWidth="true"/>
-    <col min="16" max="16" width="38.75390625" customWidth="true"/>
-    <col min="17" max="17" width="29.37890625" customWidth="true"/>
-    <col min="18" max="18" width="36.25390625" customWidth="true"/>
-    <col min="19" max="19" width="31.87890625" customWidth="true"/>
-    <col min="20" max="20" width="33.75390625" customWidth="true"/>
-    <col min="21" max="21" width="37.50390625" customWidth="true"/>
-    <col min="22" max="22" width="30.62890625" customWidth="true"/>
-    <col min="23" max="23" width="21.25390625" customWidth="true"/>
-    <col min="24" max="24" width="28.12890625" customWidth="true"/>
-    <col min="25" max="25" width="23.75390625" customWidth="true"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" customWidth="1"/>
+    <col min="8" max="8" width="36.21875" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="33.109375" customWidth="1"/>
+    <col min="11" max="11" width="23.77734375" customWidth="1"/>
+    <col min="12" max="12" width="30.6640625" customWidth="1"/>
+    <col min="13" max="13" width="26.21875" customWidth="1"/>
+    <col min="14" max="14" width="41.88671875" customWidth="1"/>
+    <col min="15" max="15" width="45.6640625" customWidth="1"/>
+    <col min="16" max="16" width="38.77734375" customWidth="1"/>
+    <col min="17" max="17" width="29.33203125" customWidth="1"/>
+    <col min="18" max="18" width="36.21875" customWidth="1"/>
+    <col min="19" max="19" width="31.88671875" customWidth="1"/>
+    <col min="20" max="20" width="33.77734375" customWidth="1"/>
+    <col min="21" max="21" width="37.5546875" customWidth="1"/>
+    <col min="22" max="22" width="30.6640625" customWidth="1"/>
+    <col min="23" max="23" width="21.21875" customWidth="1"/>
+    <col min="24" max="24" width="28.109375" customWidth="1"/>
+    <col min="25" max="25" width="23.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" s="26" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="1">
-        <v>1</v>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>0</v>
+      </c>
+      <c r="X3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s" s="3">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s" s="4">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s" s="5">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s" s="6">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="G4" t="s" s="8">
-        <v>8</v>
-      </c>
-      <c r="H4" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="I4" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="J4" t="s" s="11">
-        <v>11</v>
-      </c>
-      <c r="K4" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="L4" t="s" s="13">
-        <v>13</v>
-      </c>
-      <c r="M4" t="s" s="14">
-        <v>14</v>
-      </c>
-      <c r="N4" t="s" s="15">
-        <v>15</v>
-      </c>
-      <c r="O4" t="s" s="16">
-        <v>16</v>
-      </c>
-      <c r="P4" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="Q4" t="s" s="18">
-        <v>18</v>
-      </c>
-      <c r="R4" t="s" s="19">
-        <v>19</v>
-      </c>
-      <c r="S4" t="s" s="20">
-        <v>20</v>
-      </c>
-      <c r="T4" t="s" s="21">
-        <v>21</v>
-      </c>
-      <c r="U4" t="s" s="22">
-        <v>22</v>
-      </c>
-      <c r="V4" t="s" s="23">
-        <v>23</v>
-      </c>
-      <c r="W4" t="s" s="24">
-        <v>24</v>
-      </c>
-      <c r="X4" t="s" s="25">
-        <v>25</v>
-      </c>
-      <c r="Y4" t="s" s="26">
-        <v>26</v>
-      </c>
-      <c r="Z4" t="s" s="27">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" t="s">
+        <v>28</v>
+      </c>
+      <c r="T4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U4" t="s">
+        <v>0</v>
+      </c>
+      <c r="V4" t="s">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>0</v>
+      </c>
+      <c r="X4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="J5" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="K5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L5" t="s">
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O5" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="P5" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Q5" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="R5" t="s">
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U5" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="V5" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="W5" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="X5" t="s">
         <v>0</v>
       </c>
       <c r="Y5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N6" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T6" t="s">
         <v>0</v>
@@ -610,18 +1063,18 @@
         <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
@@ -636,10 +1089,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H7" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I7" t="s">
         <v>0</v>
@@ -648,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="L7" t="s">
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N7" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="O7" t="s">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Q7" t="s">
         <v>0</v>
@@ -672,10 +1125,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T7" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="U7" t="s">
         <v>0</v>
@@ -690,78 +1143,78 @@
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I8" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L8" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="M8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O8" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="R8" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="S8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T8" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="U8" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="W8" t="s">
         <v>0</v>
@@ -770,18 +1223,18 @@
         <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="Z8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
@@ -796,10 +1249,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H9" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I9" t="s">
         <v>0</v>
@@ -814,10 +1267,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N9" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="O9" t="s">
         <v>0</v>
@@ -832,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T9" t="s">
         <v>0</v>
@@ -850,24 +1303,24 @@
         <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
         <v>0</v>
@@ -876,43 +1329,43 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="J10" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="K10" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="L10" t="s">
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="P10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q10" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="R10" t="s">
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T10" t="s">
         <v>0</v>
@@ -930,18 +1383,18 @@
         <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
@@ -950,16 +1403,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I11" t="s">
         <v>0</v>
@@ -968,16 +1421,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N11" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="O11" t="s">
         <v>0</v>
@@ -986,13 +1439,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="R11" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T11" t="s">
         <v>0</v>
@@ -1004,75 +1457,75 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="X11" t="s">
         <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="Z11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F12" t="s">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I12" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="J12" t="s">
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="L12" t="s">
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="N12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O12" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="P12" t="s">
         <v>0</v>
       </c>
       <c r="Q12" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="R12" t="s">
         <v>0</v>
       </c>
       <c r="S12" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="T12" t="s">
         <v>0</v>
@@ -1090,24 +1543,24 @@
         <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
         <v>0</v>
@@ -1116,16 +1569,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I13" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="K13" t="s">
         <v>0</v>
@@ -1134,25 +1587,25 @@
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O13" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="R13" t="s">
         <v>0</v>
       </c>
       <c r="S13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T13" t="s">
         <v>0</v>
@@ -1170,18 +1623,18 @@
         <v>0</v>
       </c>
       <c r="Y13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
@@ -1190,13 +1643,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H14" t="s">
         <v>0</v>
@@ -1208,31 +1661,31 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N14" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="O14" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="P14" t="s">
         <v>0</v>
       </c>
       <c r="Q14" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="R14" t="s">
         <v>0</v>
       </c>
       <c r="S14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T14" t="s">
         <v>0</v>
@@ -1244,75 +1697,75 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="X14" t="s">
         <v>0</v>
       </c>
       <c r="Y14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F15" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G15" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="H15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I15" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="L15" t="s">
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="N15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O15" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="P15" t="s">
         <v>0</v>
       </c>
       <c r="Q15" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="R15" t="s">
         <v>0</v>
       </c>
       <c r="S15" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="T15" t="s">
         <v>0</v>
@@ -1330,18 +1783,18 @@
         <v>0</v>
       </c>
       <c r="Y15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
         <v>0</v>
@@ -1350,78 +1803,78 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F16" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I16" t="s">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="K16" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="L16" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="M16" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="N16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O16" t="s">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Q16" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="R16" t="s">
         <v>0</v>
       </c>
       <c r="S16" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="T16" t="s">
         <v>0</v>
       </c>
       <c r="U16" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="V16" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="W16" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="X16" t="s">
         <v>0</v>
       </c>
       <c r="Y16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
         <v>0</v>
@@ -1436,10 +1889,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H17" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I17" t="s">
         <v>0</v>
@@ -1448,31 +1901,31 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="L17" t="s">
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O17" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="P17" t="s">
         <v>0</v>
       </c>
       <c r="Q17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R17" t="s">
         <v>0</v>
       </c>
       <c r="S17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T17" t="s">
         <v>0</v>
@@ -1490,18 +1943,18 @@
         <v>0</v>
       </c>
       <c r="Y17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
         <v>0</v>
@@ -1510,16 +1963,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I18" t="s">
         <v>0</v>
@@ -1534,10 +1987,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O18" t="s">
         <v>0</v>
@@ -1552,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T18" t="s">
         <v>0</v>
@@ -1570,98 +2023,98 @@
         <v>0</v>
       </c>
       <c r="Y18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="H19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I19" t="s">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L19" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="N19" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="O19" t="s">
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="R19" t="s">
         <v>0</v>
       </c>
       <c r="S19" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="T19" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="U19" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="X19" t="s">
         <v>0</v>
       </c>
       <c r="Y19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="C20" t="s">
         <v>0</v>
@@ -1676,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H20" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I20" t="s">
         <v>0</v>
@@ -1688,16 +2141,16 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="L20" t="s">
         <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N20" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="O20" t="s">
         <v>0</v>
@@ -1706,13 +2159,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="R20" t="s">
         <v>0</v>
       </c>
       <c r="S20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T20" t="s">
         <v>0</v>
@@ -1730,42 +2183,42 @@
         <v>0</v>
       </c>
       <c r="Y20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E21" t="s">
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I21" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="J21" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="K21" t="s">
         <v>0</v>
@@ -1774,16 +2227,16 @@
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O21" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="P21" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Q21" t="s">
         <v>0</v>
@@ -1792,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T21" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="U21" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="V21" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="W21" t="s">
         <v>0</v>
@@ -1810,72 +2263,72 @@
         <v>0</v>
       </c>
       <c r="Y21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z21" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I22" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="J22" t="s">
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L22" t="s">
         <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N22" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="O22" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="P22" t="s">
         <v>0</v>
       </c>
       <c r="Q22" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="R22" t="s">
         <v>0</v>
       </c>
       <c r="S22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T22" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="U22" t="s">
         <v>0</v>
@@ -1884,24 +2337,24 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="X22" t="s">
         <v>0</v>
       </c>
       <c r="Y22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z22" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
         <v>0</v>
@@ -1916,10 +2369,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H23" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I23" t="s">
         <v>0</v>
@@ -1934,10 +2387,10 @@
         <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N23" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="O23" t="s">
         <v>0</v>
@@ -1952,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T23" t="s">
         <v>0</v>
@@ -1970,78 +2423,78 @@
         <v>0</v>
       </c>
       <c r="Y23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K24" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="L24" t="s">
         <v>0</v>
       </c>
       <c r="M24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q24" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="R24" t="s">
         <v>0</v>
       </c>
       <c r="S24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T24" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="U24" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="W24" t="s">
         <v>0</v>
@@ -2050,69 +2503,69 @@
         <v>0</v>
       </c>
       <c r="Y24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z24" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F25" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H25" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="L25" t="s">
         <v>0</v>
       </c>
       <c r="M25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O25" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="P25" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Q25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R25" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="S25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T25" t="s">
         <v>0</v>
@@ -2130,18 +2583,18 @@
         <v>0</v>
       </c>
       <c r="Y25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z25" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
         <v>0</v>
@@ -2156,10 +2609,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I26" t="s">
         <v>0</v>
@@ -2174,10 +2627,10 @@
         <v>0</v>
       </c>
       <c r="M26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O26" t="s">
         <v>0</v>
@@ -2192,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T26" t="s">
         <v>0</v>
@@ -2210,72 +2663,72 @@
         <v>0</v>
       </c>
       <c r="Y26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z26" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F27" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K27" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="L27" t="s">
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q27" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="R27" t="s">
         <v>0</v>
       </c>
       <c r="S27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T27" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="U27" t="s">
         <v>0</v>
@@ -2290,33 +2743,33 @@
         <v>0</v>
       </c>
       <c r="Y27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z27" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H28" t="s">
         <v>0</v>
@@ -2334,25 +2787,25 @@
         <v>0</v>
       </c>
       <c r="M28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N28" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="O28" t="s">
         <v>0</v>
       </c>
       <c r="P28" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R28" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="S28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T28" t="s">
         <v>0</v>
@@ -2370,18 +2823,18 @@
         <v>0</v>
       </c>
       <c r="Y28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z28" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
@@ -2396,10 +2849,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H29" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I29" t="s">
         <v>0</v>
@@ -2414,10 +2867,10 @@
         <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N29" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="O29" t="s">
         <v>0</v>
@@ -2432,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T29" t="s">
         <v>0</v>
@@ -2450,42 +2903,42 @@
         <v>0</v>
       </c>
       <c r="Y29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z29" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F30" t="s">
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H30" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="K30" t="s">
         <v>0</v>
@@ -2494,16 +2947,16 @@
         <v>0</v>
       </c>
       <c r="M30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N30" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="P30" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="s">
         <v>0</v>
@@ -2512,10 +2965,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T30" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="U30" t="s">
         <v>0</v>
@@ -2530,419 +2983,93 @@
         <v>0</v>
       </c>
       <c r="Y30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z30" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F31" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H31" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I31" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="J31" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="K31" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="L31" t="s">
         <v>0</v>
       </c>
       <c r="M31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N31" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="O31" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="P31" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Q31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R31" t="s">
         <v>0</v>
       </c>
       <c r="S31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T31" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="U31" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="V31" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="W31" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="X31" t="s">
         <v>0</v>
       </c>
       <c r="Y31" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="Z31" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>0</v>
-      </c>
-      <c r="F32" t="s">
-        <v>0</v>
-      </c>
-      <c r="G32" t="s">
-        <v>29</v>
-      </c>
-      <c r="H32" t="s">
-        <v>0</v>
-      </c>
-      <c r="I32" t="s">
-        <v>0</v>
-      </c>
-      <c r="J32" t="s">
-        <v>0</v>
-      </c>
-      <c r="K32" t="s">
-        <v>0</v>
-      </c>
-      <c r="L32" t="s">
-        <v>0</v>
-      </c>
-      <c r="M32" t="s">
-        <v>29</v>
-      </c>
-      <c r="N32" t="s">
-        <v>0</v>
-      </c>
-      <c r="O32" t="s">
-        <v>0</v>
-      </c>
-      <c r="P32" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>0</v>
-      </c>
-      <c r="R32" t="s">
-        <v>0</v>
-      </c>
-      <c r="S32" t="s">
-        <v>29</v>
-      </c>
-      <c r="T32" t="s">
-        <v>0</v>
-      </c>
-      <c r="U32" t="s">
-        <v>0</v>
-      </c>
-      <c r="V32" t="s">
-        <v>0</v>
-      </c>
-      <c r="W32" t="s">
-        <v>0</v>
-      </c>
-      <c r="X32" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" t="s">
-        <v>0</v>
-      </c>
-      <c r="D33" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33" t="s">
-        <v>0</v>
-      </c>
-      <c r="F33" t="s">
-        <v>0</v>
-      </c>
-      <c r="G33" t="s">
-        <v>29</v>
-      </c>
-      <c r="H33" t="s">
-        <v>0</v>
-      </c>
-      <c r="I33" t="s">
-        <v>0</v>
-      </c>
-      <c r="J33" t="s">
-        <v>0</v>
-      </c>
-      <c r="K33" t="s">
-        <v>0</v>
-      </c>
-      <c r="L33" t="s">
-        <v>0</v>
-      </c>
-      <c r="M33" t="s">
-        <v>29</v>
-      </c>
-      <c r="N33" t="s">
-        <v>0</v>
-      </c>
-      <c r="O33" t="s">
-        <v>0</v>
-      </c>
-      <c r="P33" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>0</v>
-      </c>
-      <c r="R33" t="s">
-        <v>0</v>
-      </c>
-      <c r="S33" t="s">
-        <v>29</v>
-      </c>
-      <c r="T33" t="s">
-        <v>0</v>
-      </c>
-      <c r="U33" t="s">
-        <v>0</v>
-      </c>
-      <c r="V33" t="s">
-        <v>0</v>
-      </c>
-      <c r="W33" t="s">
-        <v>0</v>
-      </c>
-      <c r="X33" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" t="s">
-        <v>28</v>
-      </c>
-      <c r="E34" t="s">
-        <v>28</v>
-      </c>
-      <c r="F34" t="s">
-        <v>0</v>
-      </c>
-      <c r="G34" t="s">
-        <v>29</v>
-      </c>
-      <c r="H34" t="s">
-        <v>28</v>
-      </c>
-      <c r="I34" t="s">
-        <v>28</v>
-      </c>
-      <c r="J34" t="s">
-        <v>28</v>
-      </c>
-      <c r="K34" t="s">
-        <v>28</v>
-      </c>
-      <c r="L34" t="s">
-        <v>0</v>
-      </c>
-      <c r="M34" t="s">
-        <v>29</v>
-      </c>
-      <c r="N34" t="s">
-        <v>28</v>
-      </c>
-      <c r="O34" t="s">
-        <v>28</v>
-      </c>
-      <c r="P34" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>28</v>
-      </c>
-      <c r="R34" t="s">
-        <v>0</v>
-      </c>
-      <c r="S34" t="s">
-        <v>29</v>
-      </c>
-      <c r="T34" t="s">
-        <v>28</v>
-      </c>
-      <c r="U34" t="s">
-        <v>28</v>
-      </c>
-      <c r="V34" t="s">
-        <v>28</v>
-      </c>
-      <c r="W34" t="s">
-        <v>28</v>
-      </c>
-      <c r="X34" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells>
-    <mergeCell ref="A2:Z2"/>
-    <mergeCell ref="A36:Z36"/>
-    <mergeCell ref="A37:Z37"/>
-    <mergeCell ref="A38:Z38"/>
-    <mergeCell ref="A39:Z39"/>
-    <mergeCell ref="A40:Z40"/>
-    <mergeCell ref="A41:Z41"/>
-    <mergeCell ref="A42:Z42"/>
-    <mergeCell ref="A43:Z43"/>
-    <mergeCell ref="A44:Z44"/>
-    <mergeCell ref="A45:Z45"/>
-    <mergeCell ref="A46:Z46"/>
-    <mergeCell ref="A47:Z47"/>
-  </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tables/socialResponses/opioidSubstitutionProviders.xlsx
+++ b/tables/socialResponses/opioidSubstitutionProviders.xlsx
@@ -556,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
